--- a/raw-data/JRL_block1_30_10_5.xlsx
+++ b/raw-data/JRL_block1_30_10_5.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MethodPointer1">-2031245568</definedName>
-    <definedName name="MethodPointer2">552</definedName>
+    <definedName name="MethodPointer1">1439402608</definedName>
+    <definedName name="MethodPointer2">572</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -34,7 +34,7 @@
     <t>Experiment File Path:</t>
   </si>
   <si>
-    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_10_5.xpt</t>
+    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_10_4.xpt</t>
   </si>
   <si>
     <t>Protocol File Path:</t>
@@ -529,13 +529,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD8E9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFABCEEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFBAD7EF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFABCEEA"/>
+        <fgColor rgb="FF428EC7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6FA9D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,7 +571,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD8E9F9"/>
+        <fgColor rgb="FF9CC5E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5197CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7EB2DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,43 +595,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7EB2DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF3385C2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9CC5E5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6FA9D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5197CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF247CBD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF428EC7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -684,73 +684,70 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1088,7 +1085,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>45766</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1096,7 +1093,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>0.55417824074074074</v>
+        <v>0.45204861111111111</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1634,7 @@
         <v>144</v>
       </c>
       <c r="B45">
-        <v>21.9</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -1645,7 +1642,7 @@
         <v>144</v>
       </c>
       <c r="B46">
-        <v>21.9</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -1688,179 +1685,179 @@
       </c>
     </row>
     <row r="49" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="32" t="s">
         <v>38</v>
       </c>
       <c r="C49" s="9">
+        <v>14</v>
+      </c>
+      <c r="D49" s="9">
+        <v>12</v>
+      </c>
+      <c r="E49" s="9">
+        <v>13</v>
+      </c>
+      <c r="F49" s="9">
+        <v>11</v>
+      </c>
+      <c r="G49" s="9">
+        <v>14</v>
+      </c>
+      <c r="H49" s="9">
+        <v>12</v>
+      </c>
+      <c r="I49" s="9">
         <v>9</v>
       </c>
-      <c r="D49" s="9">
-        <v>9</v>
-      </c>
-      <c r="E49" s="9">
-        <v>10</v>
-      </c>
-      <c r="F49" s="9">
-        <v>9</v>
-      </c>
-      <c r="G49" s="9">
-        <v>10</v>
-      </c>
-      <c r="H49" s="9">
-        <v>9</v>
-      </c>
-      <c r="I49" s="9">
-        <v>8</v>
-      </c>
       <c r="J49" s="9">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K49" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L49" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M49" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N49" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O49" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="34"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="10">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="D50" s="11">
+        <v>0.877</v>
+      </c>
+      <c r="E50" s="12">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="H50" s="12">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="I50" s="10">
         <v>0.93700000000000006</v>
       </c>
-      <c r="D50" s="10">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="E50" s="11">
-        <v>1.1439999999999999</v>
-      </c>
-      <c r="F50" s="10">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="G50" s="10">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="H50" s="12">
-        <v>1.17</v>
-      </c>
-      <c r="I50" s="13">
-        <v>1.0629999999999999</v>
-      </c>
-      <c r="J50" s="12">
-        <v>1.202</v>
-      </c>
-      <c r="K50" s="14">
-        <v>1.302</v>
-      </c>
-      <c r="L50" s="14">
-        <v>1.2869999999999999</v>
+      <c r="J50" s="13">
+        <v>1.079</v>
+      </c>
+      <c r="K50" s="12">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L50" s="13">
+        <v>1.048</v>
       </c>
       <c r="M50" s="11">
-        <v>1.155</v>
-      </c>
-      <c r="N50" s="15">
-        <v>0.97799999999999998</v>
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="N50" s="10">
+        <v>0.92600000000000005</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="51" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="32" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" s="9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E51" s="9">
         <v>62</v>
       </c>
       <c r="F51" s="9">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="G51" s="9">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H51" s="9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J51" s="9">
         <v>10</v>
       </c>
       <c r="K51" s="9">
-        <v>60</v>
-      </c>
-      <c r="L51" s="16">
-        <v>3040</v>
+        <v>71</v>
+      </c>
+      <c r="L51" s="14">
+        <v>2628</v>
       </c>
       <c r="M51" s="9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N51" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O51" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="34"/>
-      <c r="C52" s="17">
-        <v>1.403</v>
-      </c>
-      <c r="D52" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="E52" s="13">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="F52" s="12">
-        <v>1.157</v>
+      <c r="B52" s="33"/>
+      <c r="C52" s="15">
+        <v>1.383</v>
+      </c>
+      <c r="D52" s="11">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="E52" s="16">
+        <v>0.999</v>
+      </c>
+      <c r="F52" s="13">
+        <v>1.095</v>
       </c>
       <c r="G52" s="12">
-        <v>1.159</v>
-      </c>
-      <c r="H52" s="14">
-        <v>1.333</v>
-      </c>
-      <c r="I52" s="13">
-        <v>1.075</v>
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="H52" s="16">
+        <v>1.038</v>
+      </c>
+      <c r="I52" s="10">
+        <v>0.96699999999999997</v>
       </c>
       <c r="J52" s="17">
-        <v>1.415</v>
-      </c>
-      <c r="K52" s="17">
-        <v>1.407</v>
-      </c>
-      <c r="L52" s="18">
-        <v>1.6890000000000001</v>
-      </c>
-      <c r="M52" s="11">
-        <v>1.1379999999999999</v>
-      </c>
-      <c r="N52" s="19">
-        <v>1.2809999999999999</v>
+        <v>1.2430000000000001</v>
+      </c>
+      <c r="K52" s="18">
+        <v>1.1990000000000001</v>
+      </c>
+      <c r="L52" s="19">
+        <v>1.4690000000000001</v>
+      </c>
+      <c r="M52" s="10">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="N52" s="18">
+        <v>1.1970000000000001</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="53" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="32" t="s">
         <v>65</v>
       </c>
       <c r="C53" s="9">
@@ -1870,461 +1867,461 @@
         <v>15</v>
       </c>
       <c r="E53" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F53" s="9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G53" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H53" s="9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I53" s="9">
+        <v>10</v>
+      </c>
+      <c r="J53" s="9">
         <v>14</v>
       </c>
-      <c r="J53" s="9">
-        <v>10</v>
-      </c>
       <c r="K53" s="20">
-        <v>1840</v>
-      </c>
-      <c r="L53" s="21">
-        <v>329</v>
-      </c>
-      <c r="M53" s="22">
-        <v>2545</v>
+        <v>1906</v>
+      </c>
+      <c r="L53" s="9">
+        <v>188</v>
+      </c>
+      <c r="M53" s="21">
+        <v>949</v>
       </c>
       <c r="N53" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="34"/>
-      <c r="C54" s="12">
-        <v>1.204</v>
+      <c r="B54" s="33"/>
+      <c r="C54" s="18">
+        <v>1.17</v>
       </c>
       <c r="D54" s="12">
-        <v>1.1679999999999999</v>
-      </c>
-      <c r="E54" s="12">
-        <v>1.1639999999999999</v>
-      </c>
-      <c r="F54" s="14">
-        <v>1.31</v>
-      </c>
-      <c r="G54" s="11">
-        <v>1.115</v>
-      </c>
-      <c r="H54" s="23">
-        <v>1.5649999999999999</v>
-      </c>
-      <c r="I54" s="12">
-        <v>1.1890000000000001</v>
-      </c>
-      <c r="J54" s="23">
-        <v>1.5740000000000001</v>
-      </c>
-      <c r="K54" s="24">
-        <v>1.7929999999999999</v>
-      </c>
-      <c r="L54" s="25">
-        <v>1.44</v>
-      </c>
-      <c r="M54" s="26">
-        <v>1.5029999999999999</v>
-      </c>
-      <c r="N54" s="26">
-        <v>1.54</v>
+        <v>1.103</v>
+      </c>
+      <c r="E54" s="13">
+        <v>1.054</v>
+      </c>
+      <c r="F54" s="18">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="G54" s="10">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="H54" s="22">
+        <v>1.399</v>
+      </c>
+      <c r="I54" s="16">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="J54" s="15">
+        <v>1.3759999999999999</v>
+      </c>
+      <c r="K54" s="23">
+        <v>1.609</v>
+      </c>
+      <c r="L54" s="18">
+        <v>1.161</v>
+      </c>
+      <c r="M54" s="18">
+        <v>1.177</v>
+      </c>
+      <c r="N54" s="22">
+        <v>1.45</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="55" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="32" t="s">
         <v>78</v>
       </c>
       <c r="C55" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D55" s="9">
+        <v>20</v>
+      </c>
+      <c r="E55" s="9">
+        <v>8</v>
+      </c>
+      <c r="F55" s="9">
         <v>16</v>
       </c>
-      <c r="E55" s="9">
-        <v>14</v>
-      </c>
-      <c r="F55" s="9">
-        <v>15</v>
-      </c>
       <c r="G55" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H55" s="9">
         <v>37</v>
       </c>
-      <c r="I55" s="9">
-        <v>142</v>
+      <c r="I55" s="24">
+        <v>277</v>
       </c>
       <c r="J55" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K55" s="9">
         <v>10</v>
       </c>
       <c r="L55" s="9">
-        <v>12</v>
-      </c>
-      <c r="M55" s="27">
-        <v>3630</v>
+        <v>14</v>
+      </c>
+      <c r="M55" s="25">
+        <v>2869</v>
       </c>
       <c r="N55" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="34"/>
-      <c r="C56" s="17">
-        <v>1.3819999999999999</v>
-      </c>
-      <c r="D56" s="12">
-        <v>1.163</v>
-      </c>
-      <c r="E56" s="25">
-        <v>1.427</v>
+      <c r="B56" s="33"/>
+      <c r="C56" s="15">
+        <v>1.347</v>
+      </c>
+      <c r="D56" s="13">
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="E56" s="26">
+        <v>1.294</v>
       </c>
       <c r="F56" s="17">
-        <v>1.4119999999999999</v>
-      </c>
-      <c r="G56" s="25">
-        <v>1.421</v>
+        <v>1.268</v>
+      </c>
+      <c r="G56" s="17">
+        <v>1.244</v>
       </c>
       <c r="H56" s="26">
-        <v>1.5209999999999999</v>
-      </c>
-      <c r="I56" s="18">
-        <v>1.728</v>
-      </c>
-      <c r="J56" s="18">
-        <v>1.7150000000000001</v>
-      </c>
-      <c r="K56" s="28">
-        <v>1.66</v>
-      </c>
-      <c r="L56" s="18">
-        <v>1.712</v>
-      </c>
-      <c r="M56" s="28">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="I56" s="23">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="J56" s="27">
+        <v>1.639</v>
+      </c>
+      <c r="K56" s="23">
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="L56" s="27">
         <v>1.677</v>
       </c>
-      <c r="N56" s="19">
-        <v>1.2450000000000001</v>
+      <c r="M56" s="15">
+        <v>1.3640000000000001</v>
+      </c>
+      <c r="N56" s="13">
+        <v>1.075</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="57" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="32" t="s">
         <v>91</v>
       </c>
       <c r="C57" s="9">
         <v>14</v>
       </c>
       <c r="D57" s="9">
+        <v>10</v>
+      </c>
+      <c r="E57" s="28">
+        <v>3337</v>
+      </c>
+      <c r="F57" s="9">
+        <v>13</v>
+      </c>
+      <c r="G57" s="9">
+        <v>178</v>
+      </c>
+      <c r="H57" s="9">
+        <v>13</v>
+      </c>
+      <c r="I57" s="29">
+        <v>490</v>
+      </c>
+      <c r="J57" s="9">
         <v>9</v>
       </c>
-      <c r="E57" s="29">
-        <v>4438</v>
-      </c>
-      <c r="F57" s="9">
-        <v>9</v>
-      </c>
-      <c r="G57" s="9">
-        <v>304</v>
-      </c>
-      <c r="H57" s="9">
-        <v>10</v>
-      </c>
-      <c r="I57" s="30">
-        <v>1227</v>
-      </c>
-      <c r="J57" s="9">
-        <v>8</v>
-      </c>
       <c r="K57" s="9">
-        <v>19</v>
-      </c>
-      <c r="L57" s="21">
-        <v>371</v>
+        <v>24</v>
+      </c>
+      <c r="L57" s="9">
+        <v>212</v>
       </c>
       <c r="M57" s="9">
         <v>61</v>
       </c>
       <c r="N57" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="34"/>
-      <c r="C58" s="17">
-        <v>1.3839999999999999</v>
-      </c>
-      <c r="D58" s="19">
-        <v>1.24</v>
-      </c>
-      <c r="E58" s="24">
-        <v>1.7649999999999999</v>
-      </c>
-      <c r="F58" s="17">
-        <v>1.391</v>
+      <c r="B58" s="33"/>
+      <c r="C58" s="26">
+        <v>1.321</v>
+      </c>
+      <c r="D58" s="12">
+        <v>1.127</v>
+      </c>
+      <c r="E58" s="19">
+        <v>1.4630000000000001</v>
+      </c>
+      <c r="F58" s="12">
+        <v>1.155</v>
       </c>
       <c r="G58" s="26">
-        <v>1.4910000000000001</v>
-      </c>
-      <c r="H58" s="24">
-        <v>1.7669999999999999</v>
-      </c>
-      <c r="I58" s="24">
-        <v>1.8089999999999999</v>
-      </c>
-      <c r="J58" s="28">
-        <v>1.639</v>
-      </c>
-      <c r="K58" s="18">
-        <v>1.6930000000000001</v>
-      </c>
-      <c r="L58" s="18">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="M58" s="18">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="N58" s="28">
-        <v>1.665</v>
+        <v>1.323</v>
+      </c>
+      <c r="H58" s="27">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="I58" s="27">
+        <v>1.653</v>
+      </c>
+      <c r="J58" s="30">
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="K58" s="23">
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="L58" s="30">
+        <v>1.5269999999999999</v>
+      </c>
+      <c r="M58" s="15">
+        <v>1.3740000000000001</v>
+      </c>
+      <c r="N58" s="23">
+        <v>1.5980000000000001</v>
       </c>
       <c r="O58" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="59" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="32" t="s">
         <v>104</v>
       </c>
       <c r="C59" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D59" s="9">
+        <v>12</v>
+      </c>
+      <c r="E59" s="9">
+        <v>95</v>
+      </c>
+      <c r="F59" s="9">
+        <v>89</v>
+      </c>
+      <c r="G59" s="9">
+        <v>11</v>
+      </c>
+      <c r="H59" s="9">
         <v>13</v>
       </c>
-      <c r="E59" s="9">
-        <v>55</v>
-      </c>
-      <c r="F59" s="9">
-        <v>55</v>
-      </c>
-      <c r="G59" s="9">
+      <c r="I59" s="9">
         <v>12</v>
       </c>
-      <c r="H59" s="9">
-        <v>9</v>
-      </c>
-      <c r="I59" s="9">
-        <v>11</v>
-      </c>
       <c r="J59" s="9">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="K59" s="9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L59" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M59" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N59" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="34"/>
-      <c r="C60" s="28">
-        <v>1.66</v>
-      </c>
-      <c r="D60" s="14">
-        <v>1.3460000000000001</v>
-      </c>
-      <c r="E60" s="26">
-        <v>1.528</v>
-      </c>
-      <c r="F60" s="23">
-        <v>1.605</v>
-      </c>
-      <c r="G60" s="25">
-        <v>1.4590000000000001</v>
-      </c>
-      <c r="H60" s="23">
-        <v>1.5880000000000001</v>
-      </c>
-      <c r="I60" s="25">
-        <v>1.482</v>
-      </c>
-      <c r="J60" s="23">
-        <v>1.6060000000000001</v>
-      </c>
-      <c r="K60" s="23">
-        <v>1.5980000000000001</v>
-      </c>
-      <c r="L60" s="23">
-        <v>1.583</v>
-      </c>
-      <c r="M60" s="28">
-        <v>1.617</v>
-      </c>
-      <c r="N60" s="24">
-        <v>1.7629999999999999</v>
+      <c r="B60" s="33"/>
+      <c r="C60" s="23">
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="D60" s="18">
+        <v>1.173</v>
+      </c>
+      <c r="E60" s="17">
+        <v>1.27</v>
+      </c>
+      <c r="F60" s="19">
+        <v>1.472</v>
+      </c>
+      <c r="G60" s="26">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="H60" s="22">
+        <v>1.4279999999999999</v>
+      </c>
+      <c r="I60" s="15">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="J60" s="19">
+        <v>1.4810000000000001</v>
+      </c>
+      <c r="K60" s="22">
+        <v>1.4470000000000001</v>
+      </c>
+      <c r="L60" s="22">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="M60" s="22">
+        <v>1.407</v>
+      </c>
+      <c r="N60" s="27">
+        <v>1.6879999999999999</v>
       </c>
       <c r="O60" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="61" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="32" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="9">
+        <v>10</v>
+      </c>
+      <c r="D61" s="21">
+        <v>793</v>
+      </c>
+      <c r="E61" s="31">
+        <v>1671</v>
+      </c>
+      <c r="F61" s="9">
         <v>13</v>
       </c>
-      <c r="D61" s="31">
-        <v>2220</v>
-      </c>
-      <c r="E61" s="32">
-        <v>1528</v>
-      </c>
-      <c r="F61" s="9">
-        <v>15</v>
-      </c>
       <c r="G61" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H61" s="31">
-        <v>2076</v>
-      </c>
-      <c r="I61" s="9">
-        <v>93</v>
+        <v>1513</v>
+      </c>
+      <c r="I61" s="24">
+        <v>252</v>
       </c>
       <c r="J61" s="9">
+        <v>14</v>
+      </c>
+      <c r="K61" s="9">
         <v>11</v>
-      </c>
-      <c r="K61" s="9">
-        <v>13</v>
       </c>
       <c r="L61" s="9">
         <v>10</v>
       </c>
-      <c r="M61" s="21">
-        <v>327</v>
+      <c r="M61" s="24">
+        <v>401</v>
       </c>
       <c r="N61" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O61" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="34"/>
-      <c r="C62" s="25">
-        <v>1.4810000000000001</v>
-      </c>
-      <c r="D62" s="14">
-        <v>1.335</v>
-      </c>
-      <c r="E62" s="12">
-        <v>1.169</v>
+      <c r="B62" s="33"/>
+      <c r="C62" s="19">
+        <v>1.452</v>
+      </c>
+      <c r="D62" s="12">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="E62" s="13">
+        <v>1.0589999999999999</v>
       </c>
       <c r="F62" s="17">
-        <v>1.393</v>
-      </c>
-      <c r="G62" s="25">
-        <v>1.4470000000000001</v>
-      </c>
-      <c r="H62" s="18">
-        <v>1.7070000000000001</v>
-      </c>
-      <c r="I62" s="18">
-        <v>1.698</v>
-      </c>
-      <c r="J62" s="14">
-        <v>1.302</v>
-      </c>
-      <c r="K62" s="25">
-        <v>1.43</v>
-      </c>
-      <c r="L62" s="25">
-        <v>1.4350000000000001</v>
-      </c>
-      <c r="M62" s="23">
-        <v>1.587</v>
-      </c>
-      <c r="N62" s="26">
-        <v>1.514</v>
+        <v>1.226</v>
+      </c>
+      <c r="G62" s="26">
+        <v>1.3069999999999999</v>
+      </c>
+      <c r="H62" s="30">
+        <v>1.54</v>
+      </c>
+      <c r="I62" s="23">
+        <v>1.615</v>
+      </c>
+      <c r="J62" s="18">
+        <v>1.208</v>
+      </c>
+      <c r="K62" s="26">
+        <v>1.32</v>
+      </c>
+      <c r="L62" s="26">
+        <v>1.286</v>
+      </c>
+      <c r="M62" s="15">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="N62" s="22">
+        <v>1.4</v>
       </c>
       <c r="O62" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="63" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="32" t="s">
         <v>130</v>
       </c>
       <c r="C63" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D63" s="9">
+        <v>11</v>
+      </c>
+      <c r="E63" s="9">
+        <v>15</v>
+      </c>
+      <c r="F63" s="9">
+        <v>15</v>
+      </c>
+      <c r="G63" s="9">
+        <v>11</v>
+      </c>
+      <c r="H63" s="9">
         <v>9</v>
       </c>
-      <c r="E63" s="9">
-        <v>10</v>
-      </c>
-      <c r="F63" s="9">
+      <c r="I63" s="9">
         <v>11</v>
       </c>
-      <c r="G63" s="9">
-        <v>9</v>
-      </c>
-      <c r="H63" s="9">
-        <v>12</v>
-      </c>
-      <c r="I63" s="9">
-        <v>14</v>
-      </c>
       <c r="J63" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K63" s="9">
         <v>10</v>
       </c>
       <c r="L63" s="9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M63" s="9">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N63" s="9">
         <v>14</v>
@@ -2334,42 +2331,42 @@
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="34"/>
+      <c r="B64" s="33"/>
       <c r="C64" s="13">
-        <v>1.0820000000000001</v>
-      </c>
-      <c r="D64" s="13">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="E64" s="11">
-        <v>1.1020000000000001</v>
+        <v>1.048</v>
+      </c>
+      <c r="D64" s="10">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="E64" s="13">
+        <v>1.0680000000000001</v>
       </c>
       <c r="F64" s="12">
-        <v>1.1819999999999999</v>
-      </c>
-      <c r="G64" s="19">
-        <v>1.268</v>
-      </c>
-      <c r="H64" s="14">
-        <v>1.327</v>
-      </c>
-      <c r="I64" s="14">
-        <v>1.304</v>
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="G64" s="18">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="H64" s="17">
+        <v>1.2310000000000001</v>
+      </c>
+      <c r="I64" s="26">
+        <v>1.28</v>
       </c>
       <c r="J64" s="13">
-        <v>1.089</v>
-      </c>
-      <c r="K64" s="19">
-        <v>1.2629999999999999</v>
-      </c>
-      <c r="L64" s="19">
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="M64" s="12">
-        <v>1.163</v>
-      </c>
-      <c r="N64" s="11">
-        <v>1.093</v>
+        <v>1.046</v>
+      </c>
+      <c r="K64" s="17">
+        <v>1.228</v>
+      </c>
+      <c r="L64" s="18">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="M64" s="13">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="N64" s="16">
+        <v>1.032</v>
       </c>
       <c r="O64" s="8" t="s">
         <v>146</v>
